--- a/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2022/ifoCAst_error_tables_filtered_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2022/ifoCAst_error_tables_filtered_latest_since_2022.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01301122029341203</v>
+        <v>0.008240683130927028</v>
       </c>
       <c r="C2">
-        <v>0.3685677491640998</v>
+        <v>0.3653326498374267</v>
       </c>
       <c r="D2">
-        <v>0.2393354346036363</v>
+        <v>0.2391193703417652</v>
       </c>
       <c r="E2">
-        <v>0.4892192091523352</v>
+        <v>0.4889983336799474</v>
       </c>
       <c r="F2">
-        <v>0.5075071805859255</v>
+        <v>0.507385489981291</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06495926225006432</v>
+        <v>0.05900012108174069</v>
       </c>
       <c r="C3">
-        <v>0.4141989025757694</v>
+        <v>0.3849571187190655</v>
       </c>
       <c r="D3">
-        <v>0.2569226199955627</v>
+        <v>0.2374917410917716</v>
       </c>
       <c r="E3">
-        <v>0.5068753495639363</v>
+        <v>0.4873312437057279</v>
       </c>
       <c r="F3">
-        <v>0.521671927512424</v>
+        <v>0.5007252527271727</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3176816654874013</v>
+        <v>0.3329153595043876</v>
       </c>
       <c r="C4">
-        <v>0.5721700370027593</v>
+        <v>0.56922599019722</v>
       </c>
       <c r="D4">
-        <v>0.4887755613561567</v>
+        <v>0.4729138842649011</v>
       </c>
       <c r="E4">
-        <v>0.6991248539110569</v>
+        <v>0.6876873448485882</v>
       </c>
       <c r="F4">
-        <v>0.648209133562168</v>
+        <v>0.6244466761365319</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
